--- a/estudiantes.xlsx
+++ b/estudiantes.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -426,13 +426,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Angel</v>
+        <v/>
       </c>
       <c r="B3" t="str">
         <v>El Preso, Wanyoma</v>
       </c>
       <c r="C3" t="str">
-        <v xml:space="preserve">Practicamos en clase la introducción. El eligió su propia digitación. </v>
+        <v>Practicamos en clase la introducción. El eligió su propia digitación. Estamos empezando segunda parte, solo estamos practicando los primeros compases.</v>
       </c>
     </row>
     <row r="4">
@@ -443,12 +443,12 @@
         <v>Bavardage, Etude Debuntants</v>
       </c>
       <c r="C4" t="str">
-        <v>Repasamos en clase y pudo ejecutar el primer sistema con relativa fluidez, hay que estar muy pendiente si realmente está repasando. Debe estudiar mas en casa., Debemos empezar ahora segundo sistema.</v>
+        <v>NO VINO, Repasamos en clase y pudo ejecutar el primer sistema con relativa fluidez, hay que estar muy pendiente si realmente está repasando. Debe estudiar mas en casa., Debemos empezar ahora segundo sistema.</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Esther</v>
+        <v/>
       </c>
       <c r="B5" t="str">
         <v>Cuán Lejos Voy - Lil Manuel Miranda</v>
@@ -470,24 +470,24 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Isabella_Garcia</v>
+        <v/>
       </c>
       <c r="B7" t="str">
         <v xml:space="preserve">Alouette - Canción Folclórica Francesa </v>
       </c>
       <c r="C7" t="str">
-        <v>Debemos seguir repasando con las dos manos. Ejecuto bien la primera parte. Buena utilización del quinto. Es mejor que solo haga intervalo 3ro - Pulgar en la izquierda. Ya empezamos el segundo sistema que es en su mayoría una monodia.</v>
+        <v>Debemos seguir repasando con las dos manos. Ejecuto bien la primera parte. Buena utilización del quinto.  Ya ejecutó el segundo sistema que es en su mayoría una monodia.</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Isabella_Rincon</v>
+        <v/>
       </c>
       <c r="B8" t="str">
-        <v>Himno de La Alegría - Beethoven</v>
+        <v xml:space="preserve">Sing Bird sing - Bastien </v>
       </c>
       <c r="C8" t="str">
-        <v>Terminó la pieza. Debe estar pendiente del cambio en el final. Pero debe repasar más. Tiene que articular mejor los dedos.  En la izquierda hizo una voz descendente que ella misma improvisó con éxito, mostró interés por esta pieza.</v>
+        <v>Empezó con mano izquierda, vamos a hacer este estudio para que gane más confianza con los acordes.</v>
       </c>
     </row>
     <row r="9">
@@ -495,21 +495,21 @@
         <v>Isabella_Rincon</v>
       </c>
       <c r="B9" t="str">
-        <v>Fiesta de Cumpleaños - Thompson</v>
+        <v>Himno de La Alegría - Beethoven</v>
       </c>
       <c r="C9" t="str">
-        <v>Ejecutó los primeros compases con manos separadas,  mejoró mucho el uso de la izquierda, hizo mucho mejor la relación 5to - pulgar.</v>
+        <v>Terminó la pieza. Debe estar pendiente del cambio en el final. Pero debe repasar más. Tiene que articular mejor los dedos.  En la izquierda hizo una voz descendente que ella misma improvisó con éxito, mostró interés por esta pieza.</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Jeronimo</v>
+        <v/>
       </c>
       <c r="B10" t="str">
-        <v>Everybody wants to Rule the World - Tears for Fears</v>
+        <v>Fiesta de Cumpleaños - Thompson</v>
       </c>
       <c r="C10" t="str">
-        <v xml:space="preserve">Repasó las dos primeras partes de la pieza, con la variación en la segunda parte que pudimos repasar satisfactoriamente. Debe seguir estudiando. Siempre cuidando digitación., </v>
+        <v>Ejecutó los primeros compases con manos separadas,  mejoró mucho el uso de la izquierda, hizo mucho mejor la relación 5to - pulgar.</v>
       </c>
     </row>
     <row r="11">
@@ -517,32 +517,32 @@
         <v>Jeronimo</v>
       </c>
       <c r="B11" t="str">
-        <v xml:space="preserve">Minuet in C, Op 1 - Alexander Reinagle </v>
+        <v>Everybody wants to Rule the World - Tears for Fears</v>
       </c>
       <c r="C11" t="str">
-        <v>Repaso en clases los primeros compases a dos manos. Debe practicar más. Me informa que casi no tiene tiempo de estudiar en casa.</v>
+        <v xml:space="preserve">NO VINO, Repasó las dos primeras partes de la pieza, con la variación en la segunda parte que pudimos repasar satisfactoriamente. Debe seguir estudiando. Siempre cuidando digitación., </v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Jeronimo</v>
+        <v/>
       </c>
       <c r="B12" t="str">
-        <v>Yo te extrañaré - Canción del tercer Cielo</v>
+        <v xml:space="preserve">Minuet in C, Op 1 - Alexander Reinagle </v>
       </c>
       <c r="C12" t="str">
-        <v>Trabajamos armonía, pudo ejecutar los 3 primeros acordes con la mano izquierda.  Ya empezó a estudiar la mano derecha, solo los primeros compases antes de la primera pausa.</v>
+        <v>Repaso en clases los primeros compases a dos manos. Debe practicar más. Me informa que casi no tiene tiempo de estudiar en casa.</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Juan_Camilo</v>
+        <v/>
       </c>
       <c r="B13" t="str">
-        <v>Comedy - Hoshino Gen</v>
+        <v>Yo te extrañaré - Canción del tercer Cielo</v>
       </c>
       <c r="C13" t="str">
-        <v xml:space="preserve">Muestra gran conexión con el ritmo de la pieza. Le faltan 3 compases para terminar la pieza, ya empezó el final con la mano derecha, le falta unir la izquierda., , Hay que estar pendiente que no descanse la muñeca en el teclado., , </v>
+        <v>Trabajamos armonía, pudo ejecutar los 3 primeros acordes con la mano izquierda.  Ya empezó a estudiar la mano derecha, solo los primeros compases antes de la primera pausa.</v>
       </c>
     </row>
     <row r="14">
@@ -550,21 +550,21 @@
         <v>Juan_Camilo</v>
       </c>
       <c r="B14" t="str">
-        <v>Jurassic Park - John Williams</v>
+        <v>Comedy - Hoshino Gen</v>
       </c>
       <c r="C14" t="str">
-        <v>Ya terminó la pieza, debe tener cuidado con los cambios en la izquierda, sobre todo al final, se siente muy conectado con el ritmo.</v>
+        <v xml:space="preserve">Muestra gran conexión con el ritmo de la pieza. En la última parte debe ser más preciso con la digitación. , Hay que estar pendiente que no descanse la muñeca en el teclado., , </v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Juan_Pablo</v>
+        <v/>
       </c>
       <c r="B15" t="str">
-        <v>20. Avec Doceur - Etude Debutants</v>
+        <v>Jurassic Park - John Williams</v>
       </c>
       <c r="C15" t="str">
-        <v>Trabajó Legato en ambas manos. Había faltado a clases.</v>
+        <v>Ya terminó la pieza, debe tener cuidado con los cambios en la izquierda, sobre todo al final, se siente muy conectado con el ritmo.</v>
       </c>
     </row>
     <row r="16">
@@ -572,21 +572,21 @@
         <v>Juan_Pablo</v>
       </c>
       <c r="B16" t="str">
-        <v>Fiesta de Cumpleaños, Thompson</v>
+        <v>20. Avec Doceur - Etude Debutants</v>
       </c>
       <c r="C16" t="str">
-        <v/>
+        <v>Trabajó Legato en ambas manos. Le falta practicar más el final, y escucharla en su totalidad.</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Lorena</v>
+        <v/>
       </c>
       <c r="B17" t="str">
-        <v>Swan Lake Waltz - Tchaikovsky</v>
+        <v>Fiesta de Cumpleaños, Thompson</v>
       </c>
       <c r="C17" t="str">
-        <v xml:space="preserve">Está tocando bastante bien, los saltos de la izquierda los hace de manera fluida. Seguimos con la introducción, que es una especie de escala. , Ya terminó el Vals. </v>
+        <v xml:space="preserve">Trabajamos legato en ambos brazos. </v>
       </c>
     </row>
     <row r="18">
@@ -594,21 +594,21 @@
         <v>Lorena</v>
       </c>
       <c r="B18" t="str">
-        <v>Aura Lee - George Poulton</v>
+        <v>Swan Lake Waltz - Tchaikovsky</v>
       </c>
       <c r="C18" t="str">
-        <v xml:space="preserve">Repasamos a 4 manos la primera página de manera satisfactoria. , </v>
+        <v xml:space="preserve">NO VINO, Está tocando bastante bien, los saltos de la izquierda los hace de manera fluida. Seguimos con la introducción, que es una especie de escala. , Ya terminó el Vals. </v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Lorenzo</v>
+        <v/>
       </c>
       <c r="B19" t="str">
-        <v xml:space="preserve">Tambores Indios </v>
+        <v>Aura Lee - George Poulton</v>
       </c>
       <c r="C19" t="str">
-        <v>Ya ejecutó la pieza con las dos manos de manera satisfactoria, hay que seguir solfeando con él  mientras toca, a veces toca notas demás en la izquierda. Y confunde el Final de vez en cuando.</v>
+        <v xml:space="preserve">Repasamos a 4 manos la primera página de manera satisfactoria. , </v>
       </c>
     </row>
     <row r="20">
@@ -616,32 +616,32 @@
         <v>Lorenzo</v>
       </c>
       <c r="B20" t="str">
-        <v xml:space="preserve">25. Vieille Chanson - Gurlit </v>
+        <v xml:space="preserve">Tambores Indios </v>
       </c>
       <c r="C20" t="str">
-        <v xml:space="preserve">Hay que recordarle que repita la primera parte dos veces seguidas. Ejecutó bien la mayor parte de la pieza,  hay que hacer énfasis en el legato y en el quinto de la izquierda., </v>
+        <v>Ya ejecutó la pieza con las dos manos de manera satisfactoria, hay que seguir solfeando con él  mientras toca, a veces toca notas demás en la izquierda. Y confunde el Final de vez en cuando.</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Lorenzo</v>
+        <v/>
       </c>
       <c r="B21" t="str">
-        <v xml:space="preserve">Ejercicio Acorde Fm - Cm 1ra Inversión </v>
+        <v xml:space="preserve">25. Vieille Chanson - Gurlit </v>
       </c>
       <c r="C21" t="str">
-        <v>Le propuse hacer acordes en legato en forma de arpegios, descansando en el tercer dedo de la mano izquierda. Esto lo realizó de forma exitosa, pero debe tener cuidado con el quinto(Que se apoye con el movimiento del brazo para no lastimarse). , En la mano derecha estamos complementando con la Dominante y Tercera.</v>
+        <v xml:space="preserve">Hay que recordarle que repita la primera parte dos veces seguidas. Ejecutó bien la mayor parte de la pieza,  hay que hacer énfasis en el legato y en el quinto de la izquierda., </v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Majo</v>
+        <v/>
       </c>
       <c r="B22" t="str">
-        <v xml:space="preserve">Serenata - Schubert </v>
+        <v xml:space="preserve">Ejercicio Acorde Fm - Cm 1ra Inversión </v>
       </c>
       <c r="C22" t="str">
-        <v>NO VINO, Debe seguir repasando el compás 26, que tiene una gran dificultad, de resto, lleva bien la pieza, es muy recomendable que la siga repasando.</v>
+        <v>Repasó los acordes en legato en forma de arpegios. Debe tener cuidado con el quinto(Que se apoye con el movimiento del brazo para no lastimarse). , En la mano derecha estamos complementando con la Dominante y Tercera.</v>
       </c>
     </row>
     <row r="23">
@@ -649,32 +649,32 @@
         <v>Majo</v>
       </c>
       <c r="B23" t="str">
-        <v>La Vie en rose -  Édith Piaf</v>
+        <v xml:space="preserve">Serenata - Schubert </v>
       </c>
       <c r="C23" t="str">
-        <v>DEBE REPASARLA. Estamos viendo la primera página, haciendo énfasis en la lectura. Debe tener cuidado con las voces internas.</v>
+        <v>Debe seguir repasando el compás 26, que tiene una gran dificultad, de resto, lleva bien la pieza, es muy recomendable que la siga repasando.</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Majo</v>
+        <v/>
       </c>
       <c r="B24" t="str">
-        <v xml:space="preserve"> Danza Húngara No. 5 - Johannes Brahms </v>
+        <v>La Vie en rose -  Édith Piaf</v>
       </c>
       <c r="C24" t="str">
-        <v xml:space="preserve">Repasó el segundo sistema, le está costando el final de ese sistema, por ser terceras dobles(Hay que trabajarlas lentamente). Debe tener cuidado con el uso del quinto en la mano izquierda. Debe tener cuidado de no pararse tocando más lento. </v>
+        <v>DEBE REPASARLA. Estamos viendo la primera página, haciendo énfasis en la lectura. Debe tener cuidado con las voces internas.</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Martin_Rosero</v>
+        <v/>
       </c>
       <c r="B25" t="str">
-        <v>Oompa Loompa - Leslie Bricusse, Anthony Newley</v>
+        <v xml:space="preserve"> Danza Húngara No. 5 - Johannes Brahms </v>
       </c>
       <c r="C25" t="str">
-        <v xml:space="preserve">Repasó los primeros compases de la segunda parte debe estar muy claro con las notas de la mano izquierda. </v>
+        <v>Debe tener cuidado de no pararse tocando más lento. Estamos empezando tercer sistema con dos manos, le estoy pidiendo que toque muy lento las semicorcheas.</v>
       </c>
     </row>
     <row r="26">
@@ -682,21 +682,21 @@
         <v>Martin_Rosero</v>
       </c>
       <c r="B26" t="str">
-        <v xml:space="preserve">Jurassic Park - John Williams </v>
+        <v>Oompa Loompa - Leslie Bricusse, Anthony Newley</v>
       </c>
       <c r="C26" t="str">
-        <v xml:space="preserve">Repasamos el primer sistema haciendo énfasis en el tema principal, hasta el compás 8.  Trabajo la segunda parte sobre todo mano derecha. </v>
+        <v>Avanzó la segunda parte debe estar muy claro con las notas de la mano izquierda.(Me informa que no tiene teclado en este momento)</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Martin_Yañez</v>
+        <v/>
       </c>
       <c r="B27" t="str">
-        <v>Everybody Wants to Rule The World - Tears for Fears</v>
+        <v xml:space="preserve">Jurassic Park - John Williams </v>
       </c>
       <c r="C27" t="str">
-        <v>Repasó las dos primeras partes de la pieza, con la variación en la segunda parte que pudimos repasar satisfactoriamente. Debe seguir estudiando. Siempre cuidando digitación.</v>
+        <v xml:space="preserve">Repasamos el primer sistema haciendo énfasis en el tema principal.  Empezó a trabajar la segunda con dos manos. </v>
       </c>
     </row>
     <row r="28">
@@ -704,21 +704,21 @@
         <v>Martin_Yañez</v>
       </c>
       <c r="B28" t="str">
-        <v xml:space="preserve">Minuet in C, Op 1 - Alexander Reinagle </v>
+        <v>Everybody Wants to Rule The World - Tears for Fears</v>
       </c>
       <c r="C28" t="str">
-        <v>Repasó los primeros compases a dos manos. Debe practicar más. Estudió un poco los primeros compases el segundo sistema a manos separadas</v>
+        <v>NO VINO, Repasó las dos primeras partes de la pieza, con la variación en la segunda parte que pudimos repasar satisfactoriamente. Debe seguir estudiando. Siempre cuidando digitación.</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Maximiliano</v>
+        <v/>
       </c>
       <c r="B29" t="str">
-        <v>Danza Antigua - Etude Debutants</v>
+        <v xml:space="preserve">Minuet in C, Op 1 - Alexander Reinagle </v>
       </c>
       <c r="C29" t="str">
-        <v xml:space="preserve">Repasó toda la pieza,  buen uso del brazo, debe tener cuidado con el final. Tiene que repasar todo para mejorar la fluidez. </v>
+        <v>Repasó los primeros compases a dos manos. Debe practicar más. Estudió un poco los primeros compases el segundo sistema a manos separadas</v>
       </c>
     </row>
     <row r="30">
@@ -726,21 +726,21 @@
         <v>Maximiliano</v>
       </c>
       <c r="B30" t="str">
-        <v>Aura Lee, George Poulton</v>
+        <v>Danza Antigua - Etude Debutants</v>
       </c>
       <c r="C30" t="str">
-        <v xml:space="preserve">Repasamos la primera página. Le falta fluidez al final. Se confunde un poco con el uso del pulgar. Debe repasar., , </v>
+        <v xml:space="preserve">Repasó toda la pieza,  buen uso del brazo, debe tener cuidado con el final. Tiene que repasar todo para mejorar la fluidez. </v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Natalia</v>
+        <v/>
       </c>
       <c r="B31" t="str">
-        <v>Harry Potter (Tema Principal) - John Williams</v>
+        <v>Aura Lee, George Poulton</v>
       </c>
       <c r="C31" t="str">
-        <v xml:space="preserve">NO VINO, Terminó la pieza, esta haciendo bien los arpegios en la izquierda, a veces corta un poco las notas largas, por eso hicimos un ejercicio de solfeo., También debe tener cuidado con el figuraje del algunas notas, a veces no les da el valor correcto. </v>
+        <v xml:space="preserve">Repasamos la primera página. Le falta fluidez al final. Debe repasar. Esta semana empezamos segunda página., , </v>
       </c>
     </row>
     <row r="32">
@@ -748,21 +748,21 @@
         <v>Natalia</v>
       </c>
       <c r="B32" t="str">
-        <v>La Pantera Rosa</v>
+        <v>Harry Potter (Tema Principal) - John Williams</v>
       </c>
       <c r="C32" t="str">
-        <v>Tocó toda la pieza(Por partes). buen control del ritmo e interacción con la izquierda, la cual muestra una voz independiente descendente.    , En algunos segmentos de la pieza debe anticipar en la izquierda con ayuda de los silencios de corchea.</v>
+        <v xml:space="preserve">NO VINO, Terminó la pieza, esta haciendo bien los arpegios en la izquierda, a veces corta un poco las notas largas, por eso hicimos un ejercicio de solfeo., También debe tener cuidado con el figuraje del algunas notas, a veces no les da el valor correcto. </v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Nicolas_Miro</v>
+        <v/>
       </c>
       <c r="B33" t="str">
-        <v>Bella Ciao - Mishka Ziganoff</v>
+        <v>La Pantera Rosa</v>
       </c>
       <c r="C33" t="str">
-        <v xml:space="preserve">Repasamos segunda parte los primeros compases, debe estar pendiente de los cambios de la izquierda para la segunda parte. </v>
+        <v>Tocó toda la pieza. buen control del ritmo e interacción con la izquierda, la cual muestra una voz independiente descendente.    , En algunos segmentos de la pieza debe anticipar en la izquierda con ayuda de los silencios de corchea.</v>
       </c>
     </row>
     <row r="34">
@@ -770,21 +770,21 @@
         <v>Nicolas_Miro</v>
       </c>
       <c r="B34" t="str">
-        <v>Clint Eastwood - Gorillaz</v>
+        <v>Bella Ciao - Mishka Ziganoff</v>
       </c>
       <c r="C34" t="str">
-        <v>Repasó los dos primeros sistemas. Ha mejorado mucho la introducción y el ritmo en general, bastante fluido, a veces se confunde con los bajos, debe estar pendiente. Está tocando la tercera parte.</v>
+        <v>Repasamos segunda parte los primeros compases, debe estar pendiente de los cambios de la izquierda para la segunda parte. Esta semana debemos terminar la segunda parte de la pieza.</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Nicolas_Rivera</v>
+        <v/>
       </c>
       <c r="B35" t="str">
-        <v>Danza Rusa - Etude Debuntants</v>
+        <v>Clint Eastwood - Gorillaz</v>
       </c>
       <c r="C35" t="str">
-        <v xml:space="preserve">Esta tocando bien toda la pieza, y sigue el ritmo con su profesor., , Hay que seguirle recordando el problema con los dedos pegados., , </v>
+        <v>Repasó los dos primeros sistemas. Ha mejorado mucho la introducción y el ritmo en general, bastante fluido, a veces se confunde con los bajos, debe estar pendiente. Está tocando la tercera parte bastante bien.</v>
       </c>
     </row>
     <row r="36">
@@ -792,21 +792,21 @@
         <v>Nicolas_Rivera</v>
       </c>
       <c r="B36" t="str">
-        <v>19. Pas Vite - Etude Debutants</v>
+        <v>Danza Rusa - Etude Debuntants</v>
       </c>
       <c r="C36" t="str">
-        <v xml:space="preserve">Tocó toda la pieza, pero a veces mete notas falsas, se frustra un poco cuando no le salen las cosas, debe estar muy pendiente de la digitación. , , </v>
+        <v xml:space="preserve">Esta tocando bien toda la pieza, y sigue el ritmo con su profesor., , Hay que seguirle recordando el problema con los dedos pegados., , </v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Ramiro</v>
+        <v/>
       </c>
       <c r="B37" t="str">
-        <v>Marcha Imperial - John Williams</v>
+        <v>19. Pas Vite - Etude Debutants</v>
       </c>
       <c r="C37" t="str">
-        <v xml:space="preserve">Repasó tercer sistema , pero solo los primeros compases,  hay que tener mucho cuidado que lo haga legato, no debe levantar brazo, puede ser una parte difícil de recordar. , </v>
+        <v xml:space="preserve">Tocó toda la pieza, ya está tocando con mas precisión(pero debe seguir practicando), se frustra un poco cuando no le salen las cosas, debe estar muy pendiente de la digitación. , , </v>
       </c>
     </row>
     <row r="38">
@@ -814,21 +814,21 @@
         <v>Ramiro</v>
       </c>
       <c r="B38" t="str">
-        <v>Galop Favori - A Le Carpentier</v>
+        <v>Marcha Imperial - John Williams</v>
       </c>
       <c r="C38" t="str">
-        <v>Repasó la pieza, pero hay que trabajar muy lentamente esos pequeños puentes hasta llegar al final.</v>
+        <v xml:space="preserve">Seguimos con tercer sistema,  hay que tener mucho cuidado que lo haga legato, no debe levantar brazo, puede ser una parte difícil de recordar. Para la izquierda le voy a colocar un solo acorde por cada compás ya que tiene constante dificultad para su ejecución(En esta parte debe tener mucho cuidado de respetar la digitación de la derecha), </v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Samuel</v>
+        <v/>
       </c>
       <c r="B39" t="str">
-        <v>Danza Rusa</v>
+        <v>Galop Favori - A Le Carpentier</v>
       </c>
       <c r="C39" t="str">
-        <v>Ejecutó toda la pieza bien, además lo acompaño su profesor practicando de esta forma el acompañamiento y como llevar efectivamente el tempo.</v>
+        <v>Repasó la pieza, pero hay que trabajar muy lentamente esos pequeños puentes hasta llegar al final.</v>
       </c>
     </row>
     <row r="40">
@@ -836,26 +836,37 @@
         <v>Samuel</v>
       </c>
       <c r="B40" t="str">
-        <v>19. Pas vite</v>
+        <v>Danza Rusa</v>
       </c>
       <c r="C40" t="str">
-        <v>Debe tener cuidado en  la izquierda con  el 5to pulgar.  Terminó la pieza. Debe seguir repasando.</v>
+        <v>Ejecutó toda la pieza bien, además lo acompaño su profesor practicando de esta forma el acompañamiento y como llevar efectivamente el tempo.</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Samuel</v>
+        <v/>
       </c>
       <c r="B41" t="str">
+        <v>19. Pas vite</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Debe tener cuidado en  la izquierda con  el 5to pulgar.  Terminó la pieza. Debe seguir repasando.</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v/>
+      </c>
+      <c r="B42" t="str">
         <v>Danza en C Mayor - Gurlitt</v>
       </c>
-      <c r="C41" t="str">
-        <v>Repasó con éxito los primeros compases, debe tener mucho cuidado con el uso del brazo, tercer dedo en la izquierda y pulgar.</v>
+      <c r="C42" t="str">
+        <v>Repasó con éxito los primeros compases, debe tener mucho cuidado con el uso del brazo, tercer dedo en la izquierda y pulgar. Le falta ejecutar los últimos compases con manos separadas primero.</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C42"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/estudiantes.xlsx
+++ b/estudiantes.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,6 +410,12 @@
         <v>sheetName</v>
       </c>
       <c r="C1" t="str">
+        <v>objective</v>
+      </c>
+      <c r="D1" t="str">
+        <v>fragment</v>
+      </c>
+      <c r="E1" t="str">
         <v>observations</v>
       </c>
     </row>
@@ -421,6 +427,12 @@
         <v>Estudio de Czerny(pág 38), Etude Débutants</v>
       </c>
       <c r="C2" t="str">
+        <v>Simultaneidad</v>
+      </c>
+      <c r="D2" t="str">
+        <v>1-4</v>
+      </c>
+      <c r="E2" t="str">
         <v>Terminó  y repasó la pieza, debe  tener cuidado con el ritmo, el final y tratar de conseguir una buena articulación y fluidez.</v>
       </c>
     </row>
@@ -432,7 +444,13 @@
         <v>El Preso, Wanyoma</v>
       </c>
       <c r="C3" t="str">
-        <v>Practicamos en clase la introducción. El eligió su propia digitación. Estamos empezando segunda parte, solo estamos practicando los primeros compases.</v>
+        <v>Simultaneidad</v>
+      </c>
+      <c r="D3" t="str">
+        <v>1-12</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Practicamos en clase la introducción. El eligió su propia digitación. Estamos empezando segunda parte, practicamos con manos separadas.</v>
       </c>
     </row>
     <row r="4">
@@ -443,7 +461,13 @@
         <v>Bavardage, Etude Debuntants</v>
       </c>
       <c r="C4" t="str">
-        <v>NO VINO, Repasamos en clase y pudo ejecutar el primer sistema con relativa fluidez, hay que estar muy pendiente si realmente está repasando. Debe estudiar mas en casa., Debemos empezar ahora segundo sistema.</v>
+        <v xml:space="preserve">Simultaneidad - Escala </v>
+      </c>
+      <c r="D4" t="str">
+        <v>1-8</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Repasamos en clase y pudo ejecutar el primer sistema con relativa fluidez, hay que estar muy pendiente si realmente está repasando. Debe estudiar mas en casa., Debemos empezar ahora segundo sistema.</v>
       </c>
     </row>
     <row r="5">
@@ -454,7 +478,13 @@
         <v>Cuán Lejos Voy - Lil Manuel Miranda</v>
       </c>
       <c r="C5" t="str">
-        <v xml:space="preserve">Repasamos el tema principal de la obra, y ahora empezamos las segunda parte con manos separadas ,pero debe repasar más para tener fluidez. Debe tener cuidado con el figuraje del tema principal y los cambios en la armonía. </v>
+        <v xml:space="preserve">Simultaneidad </v>
+      </c>
+      <c r="D5" t="str">
+        <v>1-7</v>
+      </c>
+      <c r="E5" t="str">
+        <v xml:space="preserve">Repasamos el tema principal de la obra, y repasamos segunda parte con manos separadas, pero debe repasar más para tener fluidez. Debe tener cuidado con el figuraje del tema principal y los cambios en la armonía. </v>
       </c>
     </row>
     <row r="6">
@@ -465,7 +495,13 @@
         <v>Pequeños Compañeros de Juego - Franz Chwatal</v>
       </c>
       <c r="C6" t="str">
-        <v>Terminó los dos sistemas. Debe seguir repasando y tener cuidado con la izquierda durante el cambio de acorde con el quinto dedo.</v>
+        <v xml:space="preserve">Simultaneidad </v>
+      </c>
+      <c r="D6" t="str">
+        <v>1-8</v>
+      </c>
+      <c r="E6" t="str">
+        <v>NO VINO, Terminó los dos sistemas. Debe seguir repasando y tener cuidado con la izquierda durante el cambio de acorde con el quinto dedo.</v>
       </c>
     </row>
     <row r="7">
@@ -476,6 +512,12 @@
         <v xml:space="preserve">Alouette - Canción Folclórica Francesa </v>
       </c>
       <c r="C7" t="str">
+        <v xml:space="preserve">Simultaneidad </v>
+      </c>
+      <c r="D7" t="str">
+        <v>1-4</v>
+      </c>
+      <c r="E7" t="str">
         <v>Debemos seguir repasando con las dos manos. Ejecuto bien la primera parte. Buena utilización del quinto.  Ya ejecutó el segundo sistema que es en su mayoría una monodia.</v>
       </c>
     </row>
@@ -486,7 +528,7 @@
       <c r="B8" t="str">
         <v xml:space="preserve">Sing Bird sing - Bastien </v>
       </c>
-      <c r="C8" t="str">
+      <c r="E8" t="str">
         <v>Empezó con mano izquierda, vamos a hacer este estudio para que gane más confianza con los acordes.</v>
       </c>
     </row>
@@ -498,6 +540,12 @@
         <v>Himno de La Alegría - Beethoven</v>
       </c>
       <c r="C9" t="str">
+        <v>Simultaneidad</v>
+      </c>
+      <c r="D9" t="str">
+        <v>1-4</v>
+      </c>
+      <c r="E9" t="str">
         <v>Terminó la pieza. Debe estar pendiente del cambio en el final. Pero debe repasar más. Tiene que articular mejor los dedos.  En la izquierda hizo una voz descendente que ella misma improvisó con éxito, mostró interés por esta pieza.</v>
       </c>
     </row>
@@ -509,7 +557,13 @@
         <v>Fiesta de Cumpleaños - Thompson</v>
       </c>
       <c r="C10" t="str">
-        <v>Ejecutó los primeros compases con manos separadas,  mejoró mucho el uso de la izquierda, hizo mucho mejor la relación 5to - pulgar.</v>
+        <v>Simultaneidad</v>
+      </c>
+      <c r="D10" t="str">
+        <v>1-4</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Ejecutó toda la monodia,  mejoró mucho el uso de la izquierda, hizo mucho mejor la relación 5to - pulgar.</v>
       </c>
     </row>
     <row r="11">
@@ -520,6 +574,12 @@
         <v>Everybody wants to Rule the World - Tears for Fears</v>
       </c>
       <c r="C11" t="str">
+        <v>Simultaneidad</v>
+      </c>
+      <c r="D11" t="str">
+        <v>1-4</v>
+      </c>
+      <c r="E11" t="str">
         <v xml:space="preserve">NO VINO, Repasó las dos primeras partes de la pieza, con la variación en la segunda parte que pudimos repasar satisfactoriamente. Debe seguir estudiando. Siempre cuidando digitación., </v>
       </c>
     </row>
@@ -531,6 +591,12 @@
         <v xml:space="preserve">Minuet in C, Op 1 - Alexander Reinagle </v>
       </c>
       <c r="C12" t="str">
+        <v>Simultaneidad</v>
+      </c>
+      <c r="D12" t="str">
+        <v>1-4</v>
+      </c>
+      <c r="E12" t="str">
         <v>Repaso en clases los primeros compases a dos manos. Debe practicar más. Me informa que casi no tiene tiempo de estudiar en casa.</v>
       </c>
     </row>
@@ -542,7 +608,13 @@
         <v>Yo te extrañaré - Canción del tercer Cielo</v>
       </c>
       <c r="C13" t="str">
-        <v>Trabajamos armonía, pudo ejecutar los 3 primeros acordes con la mano izquierda.  Ya empezó a estudiar la mano derecha, solo los primeros compases antes de la primera pausa.</v>
+        <v>Simultaneidad</v>
+      </c>
+      <c r="D13" t="str">
+        <v>1-4</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Trabajamos armonía, pudo ejecutar los 3 primeros acordes con la mano izquierda.  Hicimos primer sistema, en la segunda armonía solo hicimos intervalos debido  a la dificultad para hacer acordes.</v>
       </c>
     </row>
     <row r="14">
@@ -553,6 +625,12 @@
         <v>Comedy - Hoshino Gen</v>
       </c>
       <c r="C14" t="str">
+        <v>Simultaneidad</v>
+      </c>
+      <c r="D14" t="str">
+        <v>1-4</v>
+      </c>
+      <c r="E14" t="str">
         <v xml:space="preserve">Muestra gran conexión con el ritmo de la pieza. En la última parte debe ser más preciso con la digitación. , Hay que estar pendiente que no descanse la muñeca en el teclado., , </v>
       </c>
     </row>
@@ -564,62 +642,98 @@
         <v>Jurassic Park - John Williams</v>
       </c>
       <c r="C15" t="str">
+        <v>Simultaneidad</v>
+      </c>
+      <c r="D15" t="str">
+        <v>1-4</v>
+      </c>
+      <c r="E15" t="str">
         <v>Ya terminó la pieza, debe tener cuidado con los cambios en la izquierda, sobre todo al final, se siente muy conectado con el ritmo.</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Juan_Pablo</v>
+        <v/>
       </c>
       <c r="B16" t="str">
-        <v>20. Avec Doceur - Etude Debutants</v>
+        <v>Toccata en D menor</v>
       </c>
       <c r="C16" t="str">
-        <v>Trabajó Legato en ambas manos. Le falta practicar más el final, y escucharla en su totalidad.</v>
+        <v>Simultaneidad</v>
+      </c>
+      <c r="D16" t="str">
+        <v>1-8</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Estudiamos buen uso de la digitación y adornos.</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v/>
+        <v>Juan_Pablo</v>
       </c>
       <c r="B17" t="str">
-        <v>Fiesta de Cumpleaños, Thompson</v>
+        <v>20. Avec Doceur - Etude Debutants</v>
       </c>
       <c r="C17" t="str">
-        <v xml:space="preserve">Trabajamos legato en ambos brazos. </v>
+        <v>Legato - Brazo</v>
+      </c>
+      <c r="D17" t="str">
+        <v>1-4</v>
+      </c>
+      <c r="E17" t="str">
+        <v>NO VINO, Trabajó Legato en ambas manos. Le falta practicar más el final, y escucharla en su totalidad.</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Lorena</v>
+        <v/>
       </c>
       <c r="B18" t="str">
-        <v>Swan Lake Waltz - Tchaikovsky</v>
+        <v>Fiesta de Cumpleaños, Thompson</v>
       </c>
       <c r="C18" t="str">
-        <v xml:space="preserve">NO VINO, Está tocando bastante bien, los saltos de la izquierda los hace de manera fluida. Seguimos con la introducción, que es una especie de escala. , Ya terminó el Vals. </v>
+        <v>Legato - Brazo</v>
+      </c>
+      <c r="D18" t="str">
+        <v>1-4</v>
+      </c>
+      <c r="E18" t="str">
+        <v xml:space="preserve">Trabajamos legato en ambos brazos. </v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v/>
+        <v>Lorena</v>
       </c>
       <c r="B19" t="str">
-        <v>Aura Lee - George Poulton</v>
+        <v>Swan Lake Waltz - Tchaikovsky</v>
       </c>
       <c r="C19" t="str">
-        <v xml:space="preserve">Repasamos a 4 manos la primera página de manera satisfactoria. , </v>
+        <v xml:space="preserve">Simultaneidad </v>
+      </c>
+      <c r="D19" t="str">
+        <v>1-16</v>
+      </c>
+      <c r="E19" t="str">
+        <v xml:space="preserve">NO VINO, Está tocando bastante bien, los saltos de la izquierda los hace de manera fluida. Seguimos con la introducción, que es una especie de escala. , Ya terminó el Vals. </v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Lorenzo</v>
+        <v/>
       </c>
       <c r="B20" t="str">
-        <v xml:space="preserve">Tambores Indios </v>
+        <v>Aura Lee - George Poulton</v>
       </c>
       <c r="C20" t="str">
-        <v>Ya ejecutó la pieza con las dos manos de manera satisfactoria, hay que seguir solfeando con él  mientras toca, a veces toca notas demás en la izquierda. Y confunde el Final de vez en cuando.</v>
+        <v>Simultaneidad</v>
+      </c>
+      <c r="D20" t="str">
+        <v>1-16</v>
+      </c>
+      <c r="E20" t="str">
+        <v xml:space="preserve">Repasamos a 4 manos la primera página de manera satisfactoria. , </v>
       </c>
     </row>
     <row r="21">
@@ -627,32 +741,47 @@
         <v/>
       </c>
       <c r="B21" t="str">
-        <v xml:space="preserve">25. Vieille Chanson - Gurlit </v>
+        <v>Thousand Years - A Thousand Years</v>
       </c>
       <c r="C21" t="str">
-        <v xml:space="preserve">Hay que recordarle que repita la primera parte dos veces seguidas. Ejecutó bien la mayor parte de la pieza,  hay que hacer énfasis en el legato y en el quinto de la izquierda., </v>
+        <v>Simultaneidad - Christina Perri</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Ejecutó bien la primera página, resolvió bien el pivoteo con mano izquierda en la segunda página.</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v/>
+        <v>Lorenzo</v>
       </c>
       <c r="B22" t="str">
-        <v xml:space="preserve">Ejercicio Acorde Fm - Cm 1ra Inversión </v>
+        <v xml:space="preserve">Tambores Indios </v>
       </c>
       <c r="C22" t="str">
-        <v>Repasó los acordes en legato en forma de arpegios. Debe tener cuidado con el quinto(Que se apoye con el movimiento del brazo para no lastimarse). , En la mano derecha estamos complementando con la Dominante y Tercera.</v>
+        <v xml:space="preserve">Simultaneidad </v>
+      </c>
+      <c r="D22" t="str">
+        <v>1-8</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Ya ejecutó la pieza con las dos manos de manera satisfactoria, hay que seguir solfeando con él  mientras toca, a veces toca notas demás en la izquierda. Y confunde el Final de vez en cuando.</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Majo</v>
+        <v/>
       </c>
       <c r="B23" t="str">
-        <v xml:space="preserve">Serenata - Schubert </v>
+        <v xml:space="preserve">25. Vieille Chanson - Gurlit </v>
       </c>
       <c r="C23" t="str">
-        <v>Debe seguir repasando el compás 26, que tiene una gran dificultad, de resto, lleva bien la pieza, es muy recomendable que la siga repasando.</v>
+        <v xml:space="preserve">Simultaneidad </v>
+      </c>
+      <c r="D23" t="str">
+        <v>4</v>
+      </c>
+      <c r="E23" t="str">
+        <v xml:space="preserve">Hay que recordarle que repita la primera parte dos veces seguidas. Ejecutó bien la mayor parte de la pieza,  hay que hacer énfasis en el legato y en el quinto de la izquierda., </v>
       </c>
     </row>
     <row r="24">
@@ -660,32 +789,47 @@
         <v/>
       </c>
       <c r="B24" t="str">
-        <v>La Vie en rose -  Édith Piaf</v>
+        <v xml:space="preserve">Ejercicio Acorde Fm - Cm 1ra Inversión </v>
       </c>
       <c r="C24" t="str">
-        <v>DEBE REPASARLA. Estamos viendo la primera página, haciendo énfasis en la lectura. Debe tener cuidado con las voces internas.</v>
+        <v>Acordes</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Repasó los acordes en legato en forma de arpegios. Debe tener cuidado con el quinto(Que se apoye con el movimiento del brazo para no lastimarse). , En la mano derecha estamos complementando con la Dominante y Tercera.</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v/>
+        <v>Majo</v>
       </c>
       <c r="B25" t="str">
-        <v xml:space="preserve"> Danza Húngara No. 5 - Johannes Brahms </v>
+        <v xml:space="preserve">Serenata - Schubert </v>
       </c>
       <c r="C25" t="str">
-        <v>Debe tener cuidado de no pararse tocando más lento. Estamos empezando tercer sistema con dos manos, le estoy pidiendo que toque muy lento las semicorcheas.</v>
+        <v xml:space="preserve">Simultaneidad </v>
+      </c>
+      <c r="D25" t="str">
+        <v>1-32</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Debe seguir repasando el compás 26, que tiene una gran dificultad, de resto, lleva bien la pieza, es muy recomendable que la siga repasando.</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Martin_Rosero</v>
+        <v/>
       </c>
       <c r="B26" t="str">
-        <v>Oompa Loompa - Leslie Bricusse, Anthony Newley</v>
+        <v>La Vie en rose -  Édith Piaf</v>
       </c>
       <c r="C26" t="str">
-        <v>Avanzó la segunda parte debe estar muy claro con las notas de la mano izquierda.(Me informa que no tiene teclado en este momento)</v>
+        <v>Simultaneidad</v>
+      </c>
+      <c r="D26" t="str">
+        <v>1-8</v>
+      </c>
+      <c r="E26" t="str">
+        <v>DEBE REPASARLA. Estamos viendo la primera página, haciendo énfasis en la lectura. Debe tener cuidado con las voces internas.</v>
       </c>
     </row>
     <row r="27">
@@ -693,21 +837,33 @@
         <v/>
       </c>
       <c r="B27" t="str">
-        <v xml:space="preserve">Jurassic Park - John Williams </v>
+        <v xml:space="preserve"> Danza Húngara No. 5 - Johannes Brahms </v>
       </c>
       <c r="C27" t="str">
-        <v xml:space="preserve">Repasamos el primer sistema haciendo énfasis en el tema principal.  Empezó a trabajar la segunda con dos manos. </v>
+        <v>Simultaneidad - Dinámicas - Ritmo</v>
+      </c>
+      <c r="D27" t="str">
+        <v>1-8</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Debe tener cuidado de no pararse tocando más lento. Estamos empezando tercer sistema con dos manos, le estoy pidiendo que toque muy lento las semicorcheas. Ya empezamos segunda parte solo con manos separadas.</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Martin_Yañez</v>
+        <v>Martin_Rosero</v>
       </c>
       <c r="B28" t="str">
-        <v>Everybody Wants to Rule The World - Tears for Fears</v>
+        <v>Oompa Loompa - Leslie Bricusse, Anthony Newley</v>
       </c>
       <c r="C28" t="str">
-        <v>NO VINO, Repasó las dos primeras partes de la pieza, con la variación en la segunda parte que pudimos repasar satisfactoriamente. Debe seguir estudiando. Siempre cuidando digitación.</v>
+        <v>Simultaneidad - Ritmo</v>
+      </c>
+      <c r="D28" t="str">
+        <v>1-12</v>
+      </c>
+      <c r="E28" t="str">
+        <v>NO VINO, Avanzó la segunda parte debe estar muy claro con las notas de la mano izquierda.(Me informa que no tiene teclado en este momento)</v>
       </c>
     </row>
     <row r="29">
@@ -715,21 +871,33 @@
         <v/>
       </c>
       <c r="B29" t="str">
-        <v xml:space="preserve">Minuet in C, Op 1 - Alexander Reinagle </v>
+        <v xml:space="preserve">Jurassic Park - John Williams </v>
       </c>
       <c r="C29" t="str">
-        <v>Repasó los primeros compases a dos manos. Debe practicar más. Estudió un poco los primeros compases el segundo sistema a manos separadas</v>
+        <v>Simultaneidad</v>
+      </c>
+      <c r="D29" t="str">
+        <v>1-4</v>
+      </c>
+      <c r="E29" t="str">
+        <v xml:space="preserve">Repasamos el primer sistema haciendo énfasis en el tema principal.  Empezó a trabajar la segunda con dos manos. </v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Maximiliano</v>
+        <v>Martin_Yañez</v>
       </c>
       <c r="B30" t="str">
-        <v>Danza Antigua - Etude Debutants</v>
+        <v>Everybody Wants to Rule The World - Tears for Fears</v>
       </c>
       <c r="C30" t="str">
-        <v xml:space="preserve">Repasó toda la pieza,  buen uso del brazo, debe tener cuidado con el final. Tiene que repasar todo para mejorar la fluidez. </v>
+        <v>Simultaneidad</v>
+      </c>
+      <c r="D30" t="str">
+        <v>1-4</v>
+      </c>
+      <c r="E30" t="str">
+        <v>NO VINO, Repasó las dos primeras partes de la pieza, con la variación en la segunda parte que pudimos repasar satisfactoriamente. Debe seguir estudiando. Siempre cuidando digitación.</v>
       </c>
     </row>
     <row r="31">
@@ -737,21 +905,33 @@
         <v/>
       </c>
       <c r="B31" t="str">
-        <v>Aura Lee, George Poulton</v>
+        <v xml:space="preserve">Minuet in C, Op 1 - Alexander Reinagle </v>
       </c>
       <c r="C31" t="str">
-        <v xml:space="preserve">Repasamos la primera página. Le falta fluidez al final. Debe repasar. Esta semana empezamos segunda página., , </v>
+        <v>Simultaneidad</v>
+      </c>
+      <c r="D31" t="str">
+        <v>1-4</v>
+      </c>
+      <c r="E31" t="str">
+        <v xml:space="preserve"> Debe practicar más. Ejecutó bien el primer sistema con dos manos.  </v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Natalia</v>
+        <v>Maximiliano</v>
       </c>
       <c r="B32" t="str">
-        <v>Harry Potter (Tema Principal) - John Williams</v>
+        <v>Danza Antigua - Etude Debutants</v>
       </c>
       <c r="C32" t="str">
-        <v xml:space="preserve">NO VINO, Terminó la pieza, esta haciendo bien los arpegios en la izquierda, a veces corta un poco las notas largas, por eso hicimos un ejercicio de solfeo., También debe tener cuidado con el figuraje del algunas notas, a veces no les da el valor correcto. </v>
+        <v>Simultaneidad</v>
+      </c>
+      <c r="D32" t="str">
+        <v>1-16</v>
+      </c>
+      <c r="E32" t="str">
+        <v xml:space="preserve">Repasó toda la pieza,  buen uso del brazo, debe tener cuidado con el final. Tiene que repasar todo para mejorar la fluidez. </v>
       </c>
     </row>
     <row r="33">
@@ -759,21 +939,33 @@
         <v/>
       </c>
       <c r="B33" t="str">
-        <v>La Pantera Rosa</v>
+        <v>Aura Lee, George Poulton</v>
       </c>
       <c r="C33" t="str">
-        <v>Tocó toda la pieza. buen control del ritmo e interacción con la izquierda, la cual muestra una voz independiente descendente.    , En algunos segmentos de la pieza debe anticipar en la izquierda con ayuda de los silencios de corchea.</v>
+        <v>Simultaneidad</v>
+      </c>
+      <c r="D33" t="str">
+        <v>1-4</v>
+      </c>
+      <c r="E33" t="str">
+        <v xml:space="preserve">Repasamos la primera página. Le falta fluidez al final. Debe repasar. Pudo ejecutar el primer sistema de la segunda página, debe repasar., , </v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Nicolas_Miro</v>
+        <v>Natalia</v>
       </c>
       <c r="B34" t="str">
-        <v>Bella Ciao - Mishka Ziganoff</v>
+        <v>Harry Potter (Tema Principal) - John Williams</v>
       </c>
       <c r="C34" t="str">
-        <v>Repasamos segunda parte los primeros compases, debe estar pendiente de los cambios de la izquierda para la segunda parte. Esta semana debemos terminar la segunda parte de la pieza.</v>
+        <v>Simultaneidad - Dinámicas</v>
+      </c>
+      <c r="D34" t="str">
+        <v>1-20</v>
+      </c>
+      <c r="E34" t="str">
+        <v xml:space="preserve">NO VINO, Terminó la pieza, esta haciendo bien los arpegios en la izquierda, a veces corta un poco las notas largas, por eso hicimos un ejercicio de solfeo., También debe tener cuidado con el figuraje del algunas notas, a veces no les da el valor correcto. </v>
       </c>
     </row>
     <row r="35">
@@ -781,21 +973,33 @@
         <v/>
       </c>
       <c r="B35" t="str">
-        <v>Clint Eastwood - Gorillaz</v>
+        <v>La Pantera Rosa</v>
       </c>
       <c r="C35" t="str">
-        <v>Repasó los dos primeros sistemas. Ha mejorado mucho la introducción y el ritmo en general, bastante fluido, a veces se confunde con los bajos, debe estar pendiente. Está tocando la tercera parte bastante bien.</v>
+        <v>Simultaniedad</v>
+      </c>
+      <c r="D35" t="str">
+        <v>1-16</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Tocó toda la pieza. buen control del ritmo e interacción con la izquierda, la cual muestra una voz independiente descendente.    , En algunos segmentos de la pieza debe anticipar en la izquierda con ayuda de los silencios de corchea.</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Nicolas_Rivera</v>
+        <v>Nicolas_Miro</v>
       </c>
       <c r="B36" t="str">
-        <v>Danza Rusa - Etude Debuntants</v>
+        <v>Bella Ciao - Mishka Ziganoff</v>
       </c>
       <c r="C36" t="str">
-        <v xml:space="preserve">Esta tocando bien toda la pieza, y sigue el ritmo con su profesor., , Hay que seguirle recordando el problema con los dedos pegados., , </v>
+        <v>Simultaneidad</v>
+      </c>
+      <c r="D36" t="str">
+        <v>1-4</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Repasamos segunda parte los primeros compases, debe estar pendiente de los cambios de la izquierda para la segunda parte. Le falta repasar el final de la segunda parte.</v>
       </c>
     </row>
     <row r="37">
@@ -803,21 +1007,33 @@
         <v/>
       </c>
       <c r="B37" t="str">
-        <v>19. Pas Vite - Etude Debutants</v>
+        <v>Clint Eastwood - Gorillaz</v>
       </c>
       <c r="C37" t="str">
-        <v xml:space="preserve">Tocó toda la pieza, ya está tocando con mas precisión(pero debe seguir practicando), se frustra un poco cuando no le salen las cosas, debe estar muy pendiente de la digitación. , , </v>
+        <v>Simultaneidad - Ritmo</v>
+      </c>
+      <c r="D37" t="str">
+        <v>1-14</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Repasó los dos primeros sistemas. Ha mejorado mucho la introducción y el ritmo en general, bastante fluido, a veces se confunde con los bajos, debe estar pendiente. Está tocando la tercera parte bastante bien.</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Ramiro</v>
+        <v>Nicolas_Rivera</v>
       </c>
       <c r="B38" t="str">
-        <v>Marcha Imperial - John Williams</v>
+        <v>Danza Rusa - Etude Debuntants</v>
       </c>
       <c r="C38" t="str">
-        <v xml:space="preserve">Seguimos con tercer sistema,  hay que tener mucho cuidado que lo haga legato, no debe levantar brazo, puede ser una parte difícil de recordar. Para la izquierda le voy a colocar un solo acorde por cada compás ya que tiene constante dificultad para su ejecución(En esta parte debe tener mucho cuidado de respetar la digitación de la derecha), </v>
+        <v>Simultaneidad</v>
+      </c>
+      <c r="D38" t="str">
+        <v>1-8</v>
+      </c>
+      <c r="E38" t="str">
+        <v xml:space="preserve">Esta tocando bien toda la pieza, y sigue el ritmo con su profesor., , Hay que seguirle recordando el problema con los dedos pegados., , </v>
       </c>
     </row>
     <row r="39">
@@ -825,21 +1041,33 @@
         <v/>
       </c>
       <c r="B39" t="str">
-        <v>Galop Favori - A Le Carpentier</v>
+        <v>19. Pas Vite - Etude Debutants</v>
       </c>
       <c r="C39" t="str">
-        <v>Repasó la pieza, pero hay que trabajar muy lentamente esos pequeños puentes hasta llegar al final.</v>
+        <v>Monodia - Legato</v>
+      </c>
+      <c r="D39" t="str">
+        <v>1-8</v>
+      </c>
+      <c r="E39" t="str">
+        <v xml:space="preserve">Terminó la pieza, ya está tocando con mas precisión(pero debe seguir practicando), se frustra un poco cuando no le salen las cosas, debe estar muy pendiente de la digitación. , , </v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Samuel</v>
+        <v>Ramiro</v>
       </c>
       <c r="B40" t="str">
-        <v>Danza Rusa</v>
+        <v>Marcha Imperial - John Williams</v>
       </c>
       <c r="C40" t="str">
-        <v>Ejecutó toda la pieza bien, además lo acompaño su profesor practicando de esta forma el acompañamiento y como llevar efectivamente el tempo.</v>
+        <v>Simultaneidad</v>
+      </c>
+      <c r="D40" t="str">
+        <v>1-12</v>
+      </c>
+      <c r="E40" t="str">
+        <v xml:space="preserve">Seguimos con tercer sistema,  hay que tener mucho cuidado que lo haga legato, no debe levantar brazo, puede ser una parte difícil de recordar. Para la izquierda le voy a colocar un solo acorde por cada compás ya que tiene constante dificultad para su ejecución(En esta parte debe tener mucho cuidado de respetar la digitación de la derecha). Pudo ejecutar los dos primeros compases de la tercera parte., </v>
       </c>
     </row>
     <row r="41">
@@ -847,26 +1075,72 @@
         <v/>
       </c>
       <c r="B41" t="str">
-        <v>19. Pas vite</v>
+        <v>Galop Favori - A Le Carpentier</v>
       </c>
       <c r="C41" t="str">
-        <v>Debe tener cuidado en  la izquierda con  el 5to pulgar.  Terminó la pieza. Debe seguir repasando.</v>
+        <v>Simultaneidad</v>
+      </c>
+      <c r="D41" t="str">
+        <v>1-4</v>
+      </c>
+      <c r="E41" t="str">
+        <v>Repasó la pieza, pero hay que trabajar muy lentamente esos pequeños puentes hasta llegar al final.</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v/>
+        <v>Samuel</v>
       </c>
       <c r="B42" t="str">
+        <v>Danza Rusa</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Monodia - Legato</v>
+      </c>
+      <c r="D42" t="str">
+        <v>1-8</v>
+      </c>
+      <c r="E42" t="str">
+        <v>Ejecutó toda la pieza bien, además lo acompaño su profesor practicando de esta forma el acompañamiento y como llevar efectivamente el tempo.</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v/>
+      </c>
+      <c r="B43" t="str">
+        <v>19. Pas vite</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Simultaneidad</v>
+      </c>
+      <c r="D43" t="str">
+        <v>1-4</v>
+      </c>
+      <c r="E43" t="str">
+        <v>Debe tener cuidado en  la izquierda con  el 5to pulgar.  Terminó la pieza. Debe seguir repasando.</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v/>
+      </c>
+      <c r="B44" t="str">
         <v>Danza en C Mayor - Gurlitt</v>
       </c>
-      <c r="C42" t="str">
-        <v>Repasó con éxito los primeros compases, debe tener mucho cuidado con el uso del brazo, tercer dedo en la izquierda y pulgar. Le falta ejecutar los últimos compases con manos separadas primero.</v>
+      <c r="C44" t="str">
+        <v xml:space="preserve">Simultaneidad </v>
+      </c>
+      <c r="D44" t="str">
+        <v>1-4</v>
+      </c>
+      <c r="E44" t="str">
+        <v>Repasó con éxito los primeros compases, debe tener mucho cuidado con el uso del brazo, tercer dedo en la izquierda y pulgar. Debe repasar los últimos  2 compases del sistema con las dos manos.</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C42"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E44"/>
   </ignoredErrors>
 </worksheet>
 </file>